--- a/biology/Zoologie/Euryleptidae/Euryleptidae.xlsx
+++ b/biology/Zoologie/Euryleptidae/Euryleptidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Euryleptidae sont une famille de vers plats marins du sous-ordre des Cotylea (ordre des Polycladia).
 </t>
@@ -513,13 +525,53 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Famille des Euryleptidae
-Le noms valides complet (avec auteur) de ce taxon est Euryleptidae, Stimpson, 1857[1].
+          <t>Famille des Euryleptidae</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le noms valides complet (avec auteur) de ce taxon est Euryleptidae, Stimpson, 1857.
 Synonymes
 Le nom complet Euryleptidae Lang, 1884 est incorrect : c'est une erreur d'attribution.
-Les sous-familles Euryleptinae Hallez, 1913 et Laidlawiinae Hallez, 1913 sont non utilisées dans la base de données World Register of Marine Species                               (23 novembre 2023)[1], donc synonymes de Euryleptidae.
-Liste des genres
-Selon la base de données World Register of Marine Species                               (23 novembre 2023)[1], la famille des Euryleptidae regroupe les genres suivants :
+Les sous-familles Euryleptinae Hallez, 1913 et Laidlawiinae Hallez, 1913 sont non utilisées dans la base de données World Register of Marine Species                               (23 novembre 2023), donc synonymes de Euryleptidae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Euryleptidae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euryleptidae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la base de données World Register of Marine Species                               (23 novembre 2023), la famille des Euryleptidae regroupe les genres suivants :
 genre Acerotisa Strand, 1928
 genre Anciliplana Heath &amp; McGregor, 1912
 genre Ascidiophilla Newman, 2002
